--- a/Q5/bem_results_1qa.xlsx
+++ b/Q5/bem_results_1qa.xlsx
@@ -442,10 +442,10 @@
         <v>39083</v>
       </c>
       <c r="B2" t="n">
-        <v>0.864427136587409</v>
+        <v>-0.7407484769073491</v>
       </c>
       <c r="C2" t="n">
-        <v>1.230193148602154</v>
+        <v>1.18927616223683</v>
       </c>
     </row>
     <row r="3">
@@ -453,10 +453,10 @@
         <v>39173</v>
       </c>
       <c r="B3" t="n">
-        <v>1.424862935704141</v>
+        <v>1.552790132230442</v>
       </c>
       <c r="C3" t="n">
-        <v>1.124210647922297</v>
+        <v>1.318000815497733</v>
       </c>
     </row>
     <row r="4">
@@ -464,10 +464,10 @@
         <v>39264</v>
       </c>
       <c r="B4" t="n">
-        <v>1.093643435306291</v>
+        <v>1.199564666839414</v>
       </c>
       <c r="C4" t="n">
-        <v>1.091206734662009</v>
+        <v>1.271409423140923</v>
       </c>
     </row>
     <row r="5">
@@ -475,10 +475,10 @@
         <v>39356</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9604493526230939</v>
+        <v>1.066180577980091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8632500120244302</v>
+        <v>1.328841141389603</v>
       </c>
     </row>
     <row r="6">
@@ -486,10 +486,10 @@
         <v>39448</v>
       </c>
       <c r="B6" t="n">
-        <v>1.177892889022303</v>
+        <v>1.100965313758806</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8854761727819849</v>
+        <v>1.393066593613845</v>
       </c>
     </row>
     <row r="7">
@@ -497,10 +497,10 @@
         <v>39539</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5876354941696249</v>
+        <v>1.287841515735977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4744026844505811</v>
+        <v>1.327175683328896</v>
       </c>
     </row>
     <row r="8">
@@ -508,10 +508,10 @@
         <v>39630</v>
       </c>
       <c r="B8" t="n">
-        <v>1.150663428449761</v>
+        <v>1.438056571011437</v>
       </c>
       <c r="C8" t="n">
-        <v>1.045443320081141</v>
+        <v>1.154786468355162</v>
       </c>
     </row>
     <row r="9">
@@ -519,10 +519,10 @@
         <v>39722</v>
       </c>
       <c r="B9" t="n">
-        <v>1.496172602642076</v>
+        <v>1.59016456063874</v>
       </c>
       <c r="C9" t="n">
-        <v>1.226858634571393</v>
+        <v>1.255259628213246</v>
       </c>
     </row>
     <row r="10">
@@ -530,10 +530,10 @@
         <v>39814</v>
       </c>
       <c r="B10" t="n">
-        <v>1.732162837109819</v>
+        <v>1.906782234570947</v>
       </c>
       <c r="C10" t="n">
-        <v>1.287871036037913</v>
+        <v>1.5064148902038</v>
       </c>
     </row>
     <row r="11">
@@ -541,10 +541,10 @@
         <v>39904</v>
       </c>
       <c r="B11" t="n">
-        <v>3.944553644291204</v>
+        <v>2.379827513590627</v>
       </c>
       <c r="C11" t="n">
-        <v>3.873905150986623</v>
+        <v>2.897242786957221</v>
       </c>
     </row>
     <row r="12">
@@ -552,10 +552,10 @@
         <v>39995</v>
       </c>
       <c r="B12" t="n">
-        <v>1.202527772224649</v>
+        <v>-0.8174680776942722</v>
       </c>
       <c r="C12" t="n">
-        <v>1.324149055919754</v>
+        <v>0.06624879258332328</v>
       </c>
     </row>
     <row r="13">
@@ -563,10 +563,10 @@
         <v>40087</v>
       </c>
       <c r="B13" t="n">
-        <v>0.539649784488816</v>
+        <v>-0.2867111460998828</v>
       </c>
       <c r="C13" t="n">
-        <v>2.238765896733419</v>
+        <v>0.9119264802123439</v>
       </c>
     </row>
     <row r="14">
@@ -574,10 +574,10 @@
         <v>40179</v>
       </c>
       <c r="B14" t="n">
-        <v>1.639244417933128</v>
+        <v>1.132218253377637</v>
       </c>
       <c r="C14" t="n">
-        <v>2.657741374390454</v>
+        <v>0.5523453786958399</v>
       </c>
     </row>
     <row r="15">
@@ -585,10 +585,10 @@
         <v>40269</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4274889142472205</v>
+        <v>-0.03295156375084929</v>
       </c>
       <c r="C15" t="n">
-        <v>1.332351624856187</v>
+        <v>0.976405378032652</v>
       </c>
     </row>
     <row r="16">
@@ -596,10 +596,10 @@
         <v>40360</v>
       </c>
       <c r="B16" t="n">
-        <v>1.051995021776975</v>
+        <v>0.7998549191539084</v>
       </c>
       <c r="C16" t="n">
-        <v>1.388507764417746</v>
+        <v>1.028881179481367</v>
       </c>
     </row>
     <row r="17">
@@ -607,10 +607,10 @@
         <v>40452</v>
       </c>
       <c r="B17" t="n">
-        <v>1.456585308580394</v>
+        <v>1.592954286042669</v>
       </c>
       <c r="C17" t="n">
-        <v>1.363097793531587</v>
+        <v>1.312530235153631</v>
       </c>
     </row>
     <row r="18">
@@ -618,10 +618,10 @@
         <v>40544</v>
       </c>
       <c r="B18" t="n">
-        <v>1.032989602889955</v>
+        <v>1.090138407962726</v>
       </c>
       <c r="C18" t="n">
-        <v>1.051267865366867</v>
+        <v>1.022060098088495</v>
       </c>
     </row>
     <row r="19">
@@ -629,10 +629,10 @@
         <v>40634</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5336932007267592</v>
+        <v>0.3009251853985262</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8770493403766011</v>
+        <v>0.9519890091802097</v>
       </c>
     </row>
     <row r="20">
@@ -640,10 +640,10 @@
         <v>40725</v>
       </c>
       <c r="B20" t="n">
-        <v>1.031606319301304</v>
+        <v>0.8257584876435686</v>
       </c>
       <c r="C20" t="n">
-        <v>1.109239366416226</v>
+        <v>1.231716483746226</v>
       </c>
     </row>
     <row r="21">
@@ -651,10 +651,10 @@
         <v>40817</v>
       </c>
       <c r="B21" t="n">
-        <v>1.349219846842686</v>
+        <v>0.9984549921258079</v>
       </c>
       <c r="C21" t="n">
-        <v>1.168288174284449</v>
+        <v>1.264009923130516</v>
       </c>
     </row>
     <row r="22">
@@ -662,10 +662,10 @@
         <v>40909</v>
       </c>
       <c r="B22" t="n">
-        <v>1.312445683739405</v>
+        <v>1.11450353121274</v>
       </c>
       <c r="C22" t="n">
-        <v>1.277094273831914</v>
+        <v>1.144696270044321</v>
       </c>
     </row>
     <row r="23">
@@ -673,10 +673,10 @@
         <v>41000</v>
       </c>
       <c r="B23" t="n">
-        <v>1.384941293315478</v>
+        <v>1.146839057979676</v>
       </c>
       <c r="C23" t="n">
-        <v>1.359126282053857</v>
+        <v>1.288691213961357</v>
       </c>
     </row>
     <row r="24">
@@ -684,10 +684,10 @@
         <v>41091</v>
       </c>
       <c r="B24" t="n">
-        <v>1.166315396038442</v>
+        <v>0.8577267580328396</v>
       </c>
       <c r="C24" t="n">
-        <v>1.342529299970074</v>
+        <v>1.04234000436616</v>
       </c>
     </row>
     <row r="25">
@@ -695,10 +695,10 @@
         <v>41183</v>
       </c>
       <c r="B25" t="n">
-        <v>1.663989911786423</v>
+        <v>1.50489767440618</v>
       </c>
       <c r="C25" t="n">
-        <v>1.553127710664093</v>
+        <v>1.374453487751026</v>
       </c>
     </row>
     <row r="26">
@@ -706,10 +706,10 @@
         <v>41275</v>
       </c>
       <c r="B26" t="n">
-        <v>1.25047584599276</v>
+        <v>0.9843295407442554</v>
       </c>
       <c r="C26" t="n">
-        <v>1.370323710603394</v>
+        <v>1.176567475728163</v>
       </c>
     </row>
     <row r="27">
@@ -717,10 +717,10 @@
         <v>41365</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8392211973744068</v>
+        <v>0.5010360566936711</v>
       </c>
       <c r="C27" t="n">
-        <v>1.366031639130583</v>
+        <v>0.9346916490979851</v>
       </c>
     </row>
     <row r="28">
@@ -728,10 +728,10 @@
         <v>41456</v>
       </c>
       <c r="B28" t="n">
-        <v>1.334407770391444</v>
+        <v>1.126218272781898</v>
       </c>
       <c r="C28" t="n">
-        <v>1.535398609095928</v>
+        <v>1.16325760343674</v>
       </c>
     </row>
     <row r="29">
@@ -739,10 +739,10 @@
         <v>41548</v>
       </c>
       <c r="B29" t="n">
-        <v>1.658346398240873</v>
+        <v>1.511876550460656</v>
       </c>
       <c r="C29" t="n">
-        <v>1.47389229970134</v>
+        <v>1.1588826752293</v>
       </c>
     </row>
     <row r="30">
@@ -750,10 +750,10 @@
         <v>41640</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8122356790691398</v>
+        <v>0.6560647147372478</v>
       </c>
       <c r="C30" t="n">
-        <v>1.252740177433509</v>
+        <v>1.017884083941034</v>
       </c>
     </row>
     <row r="31">
@@ -761,10 +761,10 @@
         <v>41730</v>
       </c>
       <c r="B31" t="n">
-        <v>1.075195985876753</v>
+        <v>0.9819680024648392</v>
       </c>
       <c r="C31" t="n">
-        <v>1.309689388180324</v>
+        <v>1.05264193180723</v>
       </c>
     </row>
     <row r="32">
@@ -772,10 +772,10 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>1.0261425507613</v>
+        <v>0.9350726798038167</v>
       </c>
       <c r="C32" t="n">
-        <v>1.271768575390197</v>
+        <v>1.088395543634846</v>
       </c>
     </row>
     <row r="33">
@@ -783,10 +783,10 @@
         <v>41913</v>
       </c>
       <c r="B33" t="n">
-        <v>1.0458523070076</v>
+        <v>0.9463288831890182</v>
       </c>
       <c r="C33" t="n">
-        <v>1.232410276514706</v>
+        <v>1.020663060477744</v>
       </c>
     </row>
     <row r="34">
@@ -794,10 +794,10 @@
         <v>42005</v>
       </c>
       <c r="B34" t="n">
-        <v>1.101762515454396</v>
+        <v>1.079603868939571</v>
       </c>
       <c r="C34" t="n">
-        <v>1.330532449046551</v>
+        <v>1.286106659682318</v>
       </c>
     </row>
     <row r="35">
@@ -805,10 +805,10 @@
         <v>42095</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8984392819167297</v>
+        <v>0.767536485303566</v>
       </c>
       <c r="C35" t="n">
-        <v>1.233084746620605</v>
+        <v>0.9284789712324937</v>
       </c>
     </row>
     <row r="36">
@@ -816,10 +816,10 @@
         <v>42186</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9095462584609137</v>
+        <v>0.8705009518978457</v>
       </c>
       <c r="C36" t="n">
-        <v>1.230022017755594</v>
+        <v>1.114410399065768</v>
       </c>
     </row>
     <row r="37">
@@ -827,10 +827,10 @@
         <v>42278</v>
       </c>
       <c r="B37" t="n">
-        <v>1.191103976082886</v>
+        <v>1.150739633728648</v>
       </c>
       <c r="C37" t="n">
-        <v>1.332098720059527</v>
+        <v>1.064555587217342</v>
       </c>
     </row>
     <row r="38">
@@ -838,10 +838,10 @@
         <v>42370</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8274773989217721</v>
+        <v>0.6521778146840518</v>
       </c>
       <c r="C38" t="n">
-        <v>1.08179772148187</v>
+        <v>0.876336612746087</v>
       </c>
     </row>
     <row r="39">
@@ -849,10 +849,10 @@
         <v>42461</v>
       </c>
       <c r="B39" t="n">
-        <v>1.238450040576744</v>
+        <v>1.334613308535992</v>
       </c>
       <c r="C39" t="n">
-        <v>1.294923532226555</v>
+        <v>1.26258867643223</v>
       </c>
     </row>
   </sheetData>
